--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Untitled Folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\projet_pareto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4581D1-F3AD-4F35-A7DD-964F79C89DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C41CED-38D5-4231-8CD2-8BEE018A7917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{2CC42276-D083-4FB8-9D95-F53ADE1AE64A}"/>
   </bookViews>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F189A675-8B06-4132-BD75-3606851A19E3}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
